--- a/mainexcel/replacement/10.02.25-12.02.25.xlsx
+++ b/mainexcel/replacement/10.02.25-12.02.25.xlsx
@@ -1207,6 +1207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1625,66 +1626,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="4.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="8" customWidth="1"/>
-    <col min="4" max="7" width="16.5703125" style="11" customWidth="1"/>
-    <col min="8" max="9" width="4.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="11" customWidth="1"/>
-    <col min="12" max="13" width="4.140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" style="8" customWidth="1"/>
-    <col min="15" max="21" width="16.5703125" style="11" customWidth="1"/>
-    <col min="22" max="23" width="4.140625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="8" customWidth="1"/>
-    <col min="25" max="38" width="16.5703125" style="11" customWidth="1"/>
-    <col min="39" max="40" width="4.140625" style="7" customWidth="1"/>
-    <col min="41" max="41" width="4.140625" style="8" customWidth="1"/>
-    <col min="42" max="43" width="16.5703125" style="11" customWidth="1"/>
-    <col min="44" max="45" width="4.140625" style="7" customWidth="1"/>
-    <col min="46" max="46" width="4.140625" style="8" customWidth="1"/>
-    <col min="47" max="52" width="16.5703125" style="11" customWidth="1"/>
-    <col min="53" max="54" width="4.140625" style="7" customWidth="1"/>
-    <col min="55" max="55" width="4.140625" style="8" customWidth="1"/>
-    <col min="56" max="60" width="16.5703125" style="11" customWidth="1"/>
-    <col min="61" max="62" width="4.140625" style="7" customWidth="1"/>
-    <col min="63" max="63" width="4.140625" style="8" customWidth="1"/>
-    <col min="64" max="71" width="16.5703125" style="11" customWidth="1"/>
-    <col min="72" max="73" width="4.140625" style="7" customWidth="1"/>
-    <col min="74" max="74" width="4.140625" style="8" customWidth="1"/>
-    <col min="75" max="76" width="16.5703125" style="11" customWidth="1"/>
-    <col min="77" max="78" width="4.140625" style="7" customWidth="1"/>
-    <col min="79" max="79" width="4.140625" style="8" customWidth="1"/>
-    <col min="80" max="82" width="16.5703125" style="11" customWidth="1"/>
-    <col min="83" max="84" width="4.140625" style="7" customWidth="1"/>
-    <col min="85" max="85" width="4.140625" style="8" customWidth="1"/>
-    <col min="86" max="88" width="16.5703125" style="11" customWidth="1"/>
-    <col min="89" max="90" width="4.140625" style="7" customWidth="1"/>
-    <col min="91" max="91" width="4.140625" style="8" customWidth="1"/>
-    <col min="92" max="94" width="16.5703125" style="11" customWidth="1"/>
-    <col min="95" max="96" width="4.140625" style="7" customWidth="1"/>
-    <col min="97" max="97" width="4.140625" style="8" customWidth="1"/>
-    <col min="98" max="101" width="16.5703125" style="11" customWidth="1"/>
-    <col min="102" max="103" width="4.140625" style="7" customWidth="1"/>
-    <col min="104" max="104" width="4.140625" style="8" customWidth="1"/>
-    <col min="105" max="113" width="16.5703125" style="11" customWidth="1"/>
-    <col min="114" max="115" width="4.140625" style="7" customWidth="1"/>
-    <col min="116" max="116" width="4.140625" style="8" customWidth="1"/>
-    <col min="117" max="122" width="16.5703125" style="11" customWidth="1"/>
-    <col min="123" max="124" width="4.140625" style="7" customWidth="1"/>
-    <col min="125" max="125" width="4.140625" style="8" customWidth="1"/>
-    <col min="126" max="127" width="16.5703125" style="11" customWidth="1"/>
-    <col min="128" max="129" width="4.140625" style="7" customWidth="1"/>
-    <col min="130" max="130" width="4.140625" style="8" customWidth="1"/>
-    <col min="131" max="136" width="16.5703125" style="11" customWidth="1"/>
-    <col min="137" max="138" width="4.140625" style="7" customWidth="1"/>
-    <col min="139" max="139" width="4.140625" style="8" customWidth="1"/>
-    <col min="140" max="140" width="16.5703125" style="11" customWidth="1"/>
-    <col min="141" max="142" width="4.140625" style="7" customWidth="1"/>
-    <col min="143" max="143" width="4.140625" style="8" customWidth="1"/>
-    <col min="144" max="149" width="16.5703125" style="11" customWidth="1"/>
-    <col min="150" max="151" width="4.140625" style="7" customWidth="1"/>
-    <col min="152" max="152" width="4.140625" style="8" customWidth="1"/>
-    <col min="153" max="155" width="16.5703125" style="11" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" style="7" width="4.140625"/>
+    <col min="3" max="3" customWidth="true" style="8" width="4.140625"/>
+    <col min="4" max="7" customWidth="true" style="11" width="16.5703125"/>
+    <col min="8" max="9" customWidth="true" style="7" width="4.140625"/>
+    <col min="10" max="10" customWidth="true" style="8" width="4.140625"/>
+    <col min="11" max="11" customWidth="true" style="11" width="16.5703125"/>
+    <col min="12" max="13" customWidth="true" style="7" width="4.140625"/>
+    <col min="14" max="14" customWidth="true" style="8" width="4.140625"/>
+    <col min="15" max="21" customWidth="true" style="11" width="16.5703125"/>
+    <col min="22" max="23" customWidth="true" style="7" width="4.140625"/>
+    <col min="24" max="24" customWidth="true" style="8" width="4.140625"/>
+    <col min="25" max="38" customWidth="true" style="11" width="16.5703125"/>
+    <col min="39" max="40" customWidth="true" style="7" width="4.140625"/>
+    <col min="41" max="41" customWidth="true" style="8" width="4.140625"/>
+    <col min="42" max="43" customWidth="true" style="11" width="16.5703125"/>
+    <col min="44" max="45" customWidth="true" style="7" width="4.140625"/>
+    <col min="46" max="46" customWidth="true" style="8" width="4.140625"/>
+    <col min="47" max="52" customWidth="true" style="11" width="16.5703125"/>
+    <col min="53" max="54" customWidth="true" style="7" width="4.140625"/>
+    <col min="55" max="55" customWidth="true" style="8" width="4.140625"/>
+    <col min="56" max="60" customWidth="true" style="11" width="16.5703125"/>
+    <col min="61" max="62" customWidth="true" style="7" width="4.140625"/>
+    <col min="63" max="63" customWidth="true" style="8" width="4.140625"/>
+    <col min="64" max="71" customWidth="true" style="11" width="16.5703125"/>
+    <col min="72" max="73" customWidth="true" style="7" width="4.140625"/>
+    <col min="74" max="74" customWidth="true" style="8" width="4.140625"/>
+    <col min="75" max="76" customWidth="true" style="11" width="16.5703125"/>
+    <col min="77" max="78" customWidth="true" style="7" width="4.140625"/>
+    <col min="79" max="79" customWidth="true" style="8" width="4.140625"/>
+    <col min="80" max="82" customWidth="true" style="11" width="16.5703125"/>
+    <col min="83" max="84" customWidth="true" style="7" width="4.140625"/>
+    <col min="85" max="85" customWidth="true" style="8" width="4.140625"/>
+    <col min="86" max="88" customWidth="true" style="11" width="16.5703125"/>
+    <col min="89" max="90" customWidth="true" style="7" width="4.140625"/>
+    <col min="91" max="91" customWidth="true" style="8" width="4.140625"/>
+    <col min="92" max="94" customWidth="true" style="11" width="16.5703125"/>
+    <col min="95" max="96" customWidth="true" style="7" width="4.140625"/>
+    <col min="97" max="97" customWidth="true" style="8" width="4.140625"/>
+    <col min="98" max="101" customWidth="true" style="11" width="16.5703125"/>
+    <col min="102" max="103" customWidth="true" style="7" width="4.140625"/>
+    <col min="104" max="104" customWidth="true" style="8" width="4.140625"/>
+    <col min="105" max="113" customWidth="true" style="11" width="16.5703125"/>
+    <col min="114" max="115" customWidth="true" style="7" width="4.140625"/>
+    <col min="116" max="116" customWidth="true" style="8" width="4.140625"/>
+    <col min="117" max="122" customWidth="true" style="11" width="16.5703125"/>
+    <col min="123" max="124" customWidth="true" style="7" width="4.140625"/>
+    <col min="125" max="125" customWidth="true" style="8" width="4.140625"/>
+    <col min="126" max="127" customWidth="true" style="11" width="16.5703125"/>
+    <col min="128" max="129" customWidth="true" style="7" width="4.140625"/>
+    <col min="130" max="130" customWidth="true" style="8" width="4.140625"/>
+    <col min="131" max="136" customWidth="true" style="11" width="16.5703125"/>
+    <col min="137" max="138" customWidth="true" style="7" width="4.140625"/>
+    <col min="139" max="139" customWidth="true" style="8" width="4.140625"/>
+    <col min="140" max="140" customWidth="true" style="11" width="16.5703125"/>
+    <col min="141" max="142" customWidth="true" style="7" width="4.140625"/>
+    <col min="143" max="143" customWidth="true" style="8" width="4.140625"/>
+    <col min="144" max="149" customWidth="true" style="11" width="16.5703125"/>
+    <col min="150" max="151" customWidth="true" style="7" width="4.140625"/>
+    <col min="152" max="152" customWidth="true" style="8" width="4.140625"/>
+    <col min="153" max="155" customWidth="true" style="11" width="16.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:155" s="16" customFormat="1" ht="37.5">
@@ -6045,128 +6046,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="120">
-    <mergeCell ref="ET3:ET10"/>
-    <mergeCell ref="EU3:EU10"/>
-    <mergeCell ref="ET12:ET19"/>
-    <mergeCell ref="EU12:EU19"/>
-    <mergeCell ref="ET21:ET28"/>
-    <mergeCell ref="EU21:EU28"/>
-    <mergeCell ref="EK3:EK10"/>
-    <mergeCell ref="EL3:EL10"/>
-    <mergeCell ref="EK12:EK19"/>
-    <mergeCell ref="EL12:EL19"/>
-    <mergeCell ref="EK21:EK28"/>
-    <mergeCell ref="EL21:EL28"/>
-    <mergeCell ref="EG3:EG10"/>
-    <mergeCell ref="EH3:EH10"/>
-    <mergeCell ref="EG12:EG19"/>
-    <mergeCell ref="EH12:EH19"/>
-    <mergeCell ref="EG21:EG28"/>
-    <mergeCell ref="EH21:EH28"/>
-    <mergeCell ref="DX3:DX10"/>
-    <mergeCell ref="DY3:DY10"/>
-    <mergeCell ref="DX12:DX19"/>
-    <mergeCell ref="DY12:DY19"/>
-    <mergeCell ref="DX21:DX28"/>
-    <mergeCell ref="DY21:DY28"/>
-    <mergeCell ref="DS3:DS10"/>
-    <mergeCell ref="DT3:DT10"/>
-    <mergeCell ref="DS12:DS19"/>
-    <mergeCell ref="DT12:DT19"/>
-    <mergeCell ref="DS21:DS28"/>
-    <mergeCell ref="DT21:DT28"/>
-    <mergeCell ref="DJ3:DJ10"/>
-    <mergeCell ref="DK3:DK10"/>
-    <mergeCell ref="DJ12:DJ19"/>
-    <mergeCell ref="DK12:DK19"/>
-    <mergeCell ref="DJ21:DJ28"/>
-    <mergeCell ref="DK21:DK28"/>
-    <mergeCell ref="CX3:CX10"/>
-    <mergeCell ref="CY3:CY10"/>
-    <mergeCell ref="CX12:CX19"/>
-    <mergeCell ref="CY12:CY19"/>
-    <mergeCell ref="CX21:CX28"/>
-    <mergeCell ref="CY21:CY28"/>
-    <mergeCell ref="CQ3:CQ10"/>
-    <mergeCell ref="CR3:CR10"/>
-    <mergeCell ref="CQ12:CQ19"/>
-    <mergeCell ref="CR12:CR19"/>
-    <mergeCell ref="CQ21:CQ28"/>
-    <mergeCell ref="CR21:CR28"/>
-    <mergeCell ref="CK3:CK10"/>
-    <mergeCell ref="CL3:CL10"/>
-    <mergeCell ref="CK12:CK19"/>
-    <mergeCell ref="CL12:CL19"/>
-    <mergeCell ref="CK21:CK28"/>
-    <mergeCell ref="CL21:CL28"/>
-    <mergeCell ref="CE3:CE10"/>
-    <mergeCell ref="CF3:CF10"/>
-    <mergeCell ref="CE12:CE19"/>
-    <mergeCell ref="CF12:CF19"/>
-    <mergeCell ref="CE21:CE28"/>
-    <mergeCell ref="CF21:CF28"/>
-    <mergeCell ref="BY3:BY10"/>
-    <mergeCell ref="BZ3:BZ10"/>
-    <mergeCell ref="BY12:BY19"/>
-    <mergeCell ref="BZ12:BZ19"/>
-    <mergeCell ref="BY21:BY28"/>
-    <mergeCell ref="BZ21:BZ28"/>
-    <mergeCell ref="BT3:BT10"/>
-    <mergeCell ref="BU3:BU10"/>
-    <mergeCell ref="BT12:BT19"/>
-    <mergeCell ref="BU12:BU19"/>
-    <mergeCell ref="BT21:BT28"/>
-    <mergeCell ref="BU21:BU28"/>
-    <mergeCell ref="BI3:BI10"/>
-    <mergeCell ref="BJ3:BJ10"/>
-    <mergeCell ref="BI12:BI19"/>
-    <mergeCell ref="BJ12:BJ19"/>
-    <mergeCell ref="BI21:BI28"/>
-    <mergeCell ref="BJ21:BJ28"/>
-    <mergeCell ref="BA3:BA10"/>
-    <mergeCell ref="BB3:BB10"/>
-    <mergeCell ref="BA12:BA19"/>
-    <mergeCell ref="BB12:BB19"/>
-    <mergeCell ref="BA21:BA28"/>
-    <mergeCell ref="BB21:BB28"/>
-    <mergeCell ref="AR3:AR10"/>
-    <mergeCell ref="AS3:AS10"/>
-    <mergeCell ref="AR12:AR19"/>
-    <mergeCell ref="AS12:AS19"/>
-    <mergeCell ref="AR21:AR28"/>
-    <mergeCell ref="AS21:AS28"/>
-    <mergeCell ref="AM3:AM10"/>
-    <mergeCell ref="AN3:AN10"/>
-    <mergeCell ref="AM12:AM19"/>
-    <mergeCell ref="AN12:AN19"/>
-    <mergeCell ref="AM21:AM28"/>
-    <mergeCell ref="AN21:AN28"/>
-    <mergeCell ref="V3:V10"/>
-    <mergeCell ref="W3:W10"/>
-    <mergeCell ref="V12:V19"/>
-    <mergeCell ref="W12:W19"/>
-    <mergeCell ref="V21:V28"/>
-    <mergeCell ref="W21:W28"/>
-    <mergeCell ref="L3:L10"/>
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="L12:L19"/>
-    <mergeCell ref="M12:M19"/>
-    <mergeCell ref="L21:L28"/>
-    <mergeCell ref="M21:M28"/>
-    <mergeCell ref="H3:H10"/>
-    <mergeCell ref="I3:I10"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-  </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
